--- a/biology/Médecine/Ptérion/Ptérion.xlsx
+++ b/biology/Médecine/Ptérion/Ptérion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pt%C3%A9rion</t>
+          <t>Ptérion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie, le ptérion (du grec "pteron" : aile) est une région de la face externe du squelette du crâne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pt%C3%A9rion</t>
+          <t>Ptérion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ptérion est la région de la partie antérieure de la fosse temporale correspondant à la jonction osseuse  de l'os frontal, de l'os pariétal, de la grande aile de l'os sphénoïde et de l'os temporal.(moyen mnémotechnique : Faut Pas Se Tromper).
 Elle est située 3 à 4 cm au-dessus du milieu de l'arcade zygomatique et correspond habituellement à une suture en forme de "H" unissant les quatre os.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pt%C3%A9rion</t>
+          <t>Ptérion</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,12 +567,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traumatisme
-Le ptérion est connu comme la partie la plus faible du crâne[1].
-La division antérieure de l'artère méningée moyenne passant sous le ptérion[2], un choc traumatique sur ce dernier peut rompre cette artère et provoquer un hématome extradural.
+          <t>Traumatisme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ptérion est connu comme la partie la plus faible du crâne.
+La division antérieure de l'artère méningée moyenne passant sous le ptérion, un choc traumatique sur ce dernier peut rompre cette artère et provoquer un hématome extradural.
 Le ptérion peut également être fracturé indirectement par des coups portés sur le dessus ou à l'arrière de la tête.
-Chirurgie
-Le ptérion est un repère structurel pour l'approche neurochirurgicale des anévrismes de l'artère cérébrale moyenne[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ptérion</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pt%C3%A9rion</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chirurgie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ptérion est un repère structurel pour l'approche neurochirurgicale des anévrismes de l'artère cérébrale moyenne.
 </t>
         </is>
       </c>
